--- a/questiondemo.xlsx
+++ b/questiondemo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\CPF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9936BE8-A6AC-4A33-A3B6-787E2916A02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1C5ED1-EED5-4E74-A2A6-22856D2B8817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{404EB607-DF7E-41A0-90AD-DC0CD95D3120}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{404EB607-DF7E-41A0-90AD-DC0CD95D3120}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -403,7 +403,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/questiondemo.xlsx
+++ b/questiondemo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1C5ED1-EED5-4E74-A2A6-22856D2B8817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A8BB54-9A71-44D0-9885-DE7A26211512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{404EB607-DF7E-41A0-90AD-DC0CD95D3120}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>questionnumber</t>
   </si>
@@ -45,10 +45,49 @@
     <t>category</t>
   </si>
   <si>
-    <t>I enjoy maths</t>
-  </si>
-  <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>I have been feeling optimistic about the future</t>
+  </si>
+  <si>
+    <t>I have been feeling useful</t>
+  </si>
+  <si>
+    <t>I have been feeling relaxed</t>
+  </si>
+  <si>
+    <t>I have been feeling interested in other people</t>
+  </si>
+  <si>
+    <t>I have been had energy to spare</t>
+  </si>
+  <si>
+    <t>I have been dealing with problems well</t>
+  </si>
+  <si>
+    <t>I have been thinking clearly</t>
+  </si>
+  <si>
+    <t>I have been feeling good about myself</t>
+  </si>
+  <si>
+    <t>I have been feeling close to other people</t>
+  </si>
+  <si>
+    <t>I have been feeling confident</t>
+  </si>
+  <si>
+    <t>I have been able to make up my own mind</t>
+  </si>
+  <si>
+    <t>about things</t>
+  </si>
+  <si>
+    <t>I have been feeling loved</t>
+  </si>
+  <si>
+    <t>Ihave been interested in new things</t>
   </si>
 </sst>
 </file>
@@ -72,7 +111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -80,12 +119,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,15 +473,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E806D458-456B-4FBA-9955-7D4F7BC4D43A}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,15 +492,119 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/questiondemo.xlsx
+++ b/questiondemo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A8BB54-9A71-44D0-9885-DE7A26211512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAE9AD6-3AD1-49F9-9B4C-3E7E79EC5CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{404EB607-DF7E-41A0-90AD-DC0CD95D3120}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>questionnumber</t>
   </si>
@@ -45,9 +45,6 @@
     <t>category</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>I have been feeling optimistic about the future</t>
   </si>
   <si>
@@ -78,16 +75,13 @@
     <t>I have been feeling confident</t>
   </si>
   <si>
-    <t>I have been able to make up my own mind</t>
-  </si>
-  <si>
-    <t>about things</t>
-  </si>
-  <si>
     <t>I have been feeling loved</t>
   </si>
   <si>
     <t>Ihave been interested in new things</t>
+  </si>
+  <si>
+    <t>I have been able to make up my own mind about things</t>
   </si>
 </sst>
 </file>
@@ -475,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E806D458-456B-4FBA-9955-7D4F7BC4D43A}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,118 +488,110 @@
     </row>
     <row r="2" spans="1:3" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
